--- a/data/trans_orig/P14B98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FC5CB3-C1F4-4413-9397-A249DAA2A78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C643B5-6E68-4C8B-B129-9F750063836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B773C62E-BCDE-4830-9DDC-0F83417E0723}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{274B636F-3CFD-4357-A432-F0011590E0A5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -120,7 +120,7 @@
     <t>80,22%</t>
   </si>
   <si>
-    <t>20,09%</t>
+    <t>19,86%</t>
   </si>
   <si>
     <t>24,73%</t>
@@ -129,7 +129,7 @@
     <t>19,78%</t>
   </si>
   <si>
-    <t>79,91%</t>
+    <t>80,14%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -165,19 +165,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -186,19 +186,19 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -237,13 +237,13 @@
     <t>60,86%</t>
   </si>
   <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>33,09%</t>
@@ -252,13 +252,13 @@
     <t>39,14%</t>
   </si>
   <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>74,67%</t>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
   </si>
   <si>
     <t>63,39%</t>
@@ -288,55 +288,55 @@
     <t>67,48%</t>
   </si>
   <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>64,11%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>58,87%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
   </si>
 </sst>
 </file>
@@ -748,7 +748,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC616534-D0C7-4E71-A0FC-29F6D4CE13C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2480D6EB-390B-4A38-BC9A-16D7FAE6C43C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1919,7 +1919,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018D30AA-2BEA-42C0-A51A-EC74188188B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBAF645-FA8E-4C41-BA85-94071112E333}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14B98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B98-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05C643B5-6E68-4C8B-B129-9F750063836E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B9066B6-BDF1-469E-9FE5-80FEA222AE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{274B636F-3CFD-4357-A432-F0011590E0A5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{73CCDED0-283E-4F94-9EAD-1F015C4DC097}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="102">
   <si>
     <t>Población cuya otra enfermedad le limita 2 en 2012 (Tasa respuesta: 0,22%)</t>
   </si>
@@ -117,19 +117,25 @@
     <t>75,27%</t>
   </si>
   <si>
+    <t>24,84%</t>
+  </si>
+  <si>
     <t>80,22%</t>
   </si>
   <si>
-    <t>19,86%</t>
+    <t>39,8%</t>
   </si>
   <si>
     <t>24,73%</t>
   </si>
   <si>
+    <t>75,16%</t>
+  </si>
+  <si>
     <t>19,78%</t>
   </si>
   <si>
-    <t>80,14%</t>
+    <t>60,2%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -144,7 +150,7 @@
     <t>81,11%</t>
   </si>
   <si>
-    <t>20,2%</t>
+    <t>21,7%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -156,7 +162,7 @@
     <t>18,89%</t>
   </si>
   <si>
-    <t>79,8%</t>
+    <t>78,3%</t>
   </si>
   <si>
     <t>73,58%</t>
@@ -165,19 +171,19 @@
     <t>63,13%</t>
   </si>
   <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -186,25 +192,25 @@
     <t>36,87%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya otra enfermedad le limita 2 en 2015 (Tasa respuesta: 0,32%)</t>
+    <t>Población cuya otra enfermedad le limita 2 en 2016 (Tasa respuesta: 0,32%)</t>
   </si>
   <si>
     <t>52,68%</t>
@@ -222,13 +228,13 @@
     <t>78,21%</t>
   </si>
   <si>
-    <t>5,66%</t>
+    <t>3,46%</t>
   </si>
   <si>
     <t>21,79%</t>
   </si>
   <si>
-    <t>94,34%</t>
+    <t>96,54%</t>
   </si>
   <si>
     <t>66,91%</t>
@@ -237,13 +243,13 @@
     <t>60,86%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
   </si>
   <si>
     <t>33,09%</t>
@@ -252,13 +258,13 @@
     <t>39,14%</t>
   </si>
   <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
   </si>
   <si>
     <t>63,39%</t>
@@ -270,7 +276,7 @@
     <t>57,02%</t>
   </si>
   <si>
-    <t>15,04%</t>
+    <t>14,31%</t>
   </si>
   <si>
     <t>36,61%</t>
@@ -282,61 +288,61 @@
     <t>42,98%</t>
   </si>
   <si>
-    <t>84,96%</t>
+    <t>85,69%</t>
   </si>
   <si>
     <t>67,48%</t>
   </si>
   <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>55,84%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>62,44%</t>
   </si>
   <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
   </si>
   <si>
     <t>44,16%</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>37,56%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>61,27%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
   </si>
 </sst>
 </file>
@@ -748,7 +754,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2480D6EB-390B-4A38-BC9A-16D7FAE6C43C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30650B62-E9B3-4316-804E-1E841F6A8CFE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1462,7 +1468,7 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -1474,10 +1480,10 @@
         <v>4251</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>18</v>
@@ -1510,13 +1516,13 @@
         <v>1048</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M17" s="7">
         <v>1</v>
@@ -1525,13 +1531,13 @@
         <v>1048</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1587,7 +1593,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1602,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>20</v>
@@ -1614,7 +1620,7 @@
         <v>2066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
@@ -1629,10 +1635,10 @@
         <v>4113</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>18</v>
@@ -1656,7 +1662,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -1665,7 +1671,7 @@
         <v>958</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -1680,13 +1686,13 @@
         <v>958</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,7 +1763,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>20</v>
@@ -1769,13 +1775,13 @@
         <v>5257</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -1784,13 +1790,13 @@
         <v>11442</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,7 +1817,7 @@
         <v>16</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -1820,13 +1826,13 @@
         <v>3071</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M23" s="7">
         <v>3</v>
@@ -1835,13 +1841,13 @@
         <v>3070</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1897,7 +1903,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1919,7 +1925,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBAF645-FA8E-4C41-BA85-94071112E333}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B261257-2D18-4338-9164-821A10980EA1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1936,7 +1942,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2210,7 +2216,7 @@
         <v>966</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
@@ -2261,7 +2267,7 @@
         <v>868</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>15</v>
@@ -2365,7 +2371,7 @@
         <v>816</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>15</v>
@@ -2416,7 +2422,7 @@
         <v>1019</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
@@ -2490,10 +2496,10 @@
         <v>3714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>18</v>
@@ -2518,10 +2524,10 @@
         <v>3714</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>18</v>
@@ -2539,13 +2545,13 @@
         <v>1035</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2567,13 +2573,13 @@
         <v>1035</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,7 +2645,7 @@
         <v>2191</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
@@ -2654,10 +2660,10 @@
         <v>3337</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>18</v>
@@ -2669,13 +2675,13 @@
         <v>5527</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,7 +2696,7 @@
         <v>1083</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
@@ -2705,13 +2711,13 @@
         <v>2145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -2720,13 +2726,13 @@
         <v>3229</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2782,7 +2788,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2794,7 +2800,7 @@
         <v>1819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>15</v>
@@ -2809,7 +2815,7 @@
         <v>1347</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
@@ -2824,10 +2830,10 @@
         <v>3166</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>18</v>
@@ -2845,7 +2851,7 @@
         <v>1050</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>15</v>
@@ -2860,7 +2866,7 @@
         <v>1336</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
@@ -2875,13 +2881,13 @@
         <v>2386</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2949,13 +2955,13 @@
         <v>8690</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2964,13 +2970,13 @@
         <v>5499</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -2979,13 +2985,13 @@
         <v>14189</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,13 +3006,13 @@
         <v>4187</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3015,13 +3021,13 @@
         <v>4349</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -3030,13 +3036,13 @@
         <v>8536</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3098,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
